--- a/biology/Zoologie/Boulengerula_fischeri/Boulengerula_fischeri.xlsx
+++ b/biology/Zoologie/Boulengerula_fischeri/Boulengerula_fischeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boulengerula fischeri est une espèce de gymnophiones de la famille des Herpelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boulengerula fischeri est une espèce de gymnophiones de la famille des Herpelidae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Cyangugu au Rwanda, à environ 2 000 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Cyangugu au Rwanda, à environ 2 000 m d'altitude.
 Sa présence est incertaine en République démocratique du Congo et au Rwanda.
-Elle n'était connue que par un seul spécimen jusqu'en 2009[2].
+Elle n'était connue que par un seul spécimen jusqu'en 2009.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eberhard Fischer (1946-)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eberhard Fischer (1946-).
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nussbaum &amp; Hinkel, 1994 : Revision of East African caecilians of the genera Afrocaecilia Taylor and Boulengerula Tornier (Amphibia: Gymnophiona: Caeciliaidae). Copeia, vol. 1994, no 3, p. 750-760.</t>
         </is>
